--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Icam1-Itgal.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Icam1-Itgal.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,55 +531,55 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>28.2543990670205</v>
+        <v>28.316642</v>
       </c>
       <c r="H2">
-        <v>28.2543990670205</v>
+        <v>84.949926</v>
       </c>
       <c r="I2">
-        <v>0.2443136137494823</v>
+        <v>0.2382575792676785</v>
       </c>
       <c r="J2">
-        <v>0.2443136137494823</v>
+        <v>0.2382575792676785</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.492536771347505</v>
+        <v>0.464112</v>
       </c>
       <c r="N2">
-        <v>0.492536771347505</v>
+        <v>1.392336</v>
       </c>
       <c r="O2">
-        <v>0.02663391367080581</v>
+        <v>0.0167460263222975</v>
       </c>
       <c r="P2">
-        <v>0.02663391367080581</v>
+        <v>0.0167460263222975</v>
       </c>
       <c r="Q2">
-        <v>13.91633049283424</v>
+        <v>13.142093351904</v>
       </c>
       <c r="R2">
-        <v>13.91633049283424</v>
+        <v>118.278840167136</v>
       </c>
       <c r="S2">
-        <v>0.006507027697206308</v>
+        <v>0.003989867693903428</v>
       </c>
       <c r="T2">
-        <v>0.006507027697206308</v>
+        <v>0.003989867693903428</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,55 +593,55 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>28.2543990670205</v>
+        <v>28.316642</v>
       </c>
       <c r="H3">
-        <v>28.2543990670205</v>
+        <v>84.949926</v>
       </c>
       <c r="I3">
-        <v>0.2443136137494823</v>
+        <v>0.2382575792676785</v>
       </c>
       <c r="J3">
-        <v>0.2443136137494823</v>
+        <v>0.2382575792676785</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.51149811747412</v>
+        <v>0.519977</v>
       </c>
       <c r="N3">
-        <v>2.51149811747412</v>
+        <v>1.559931</v>
       </c>
       <c r="O3">
-        <v>0.1358091982902991</v>
+        <v>0.01876173968565624</v>
       </c>
       <c r="P3">
-        <v>0.1358091982902991</v>
+        <v>0.01876173968565624</v>
       </c>
       <c r="Q3">
-        <v>70.96087006718453</v>
+        <v>14.724002557234</v>
       </c>
       <c r="R3">
-        <v>70.96087006718453</v>
+        <v>132.516023015106</v>
       </c>
       <c r="S3">
-        <v>0.033180036014723</v>
+        <v>0.004470126680354791</v>
       </c>
       <c r="T3">
-        <v>0.033180036014723</v>
+        <v>0.004470126680354792</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>28.2543990670205</v>
+        <v>28.316642</v>
       </c>
       <c r="H4">
-        <v>28.2543990670205</v>
+        <v>84.949926</v>
       </c>
       <c r="I4">
-        <v>0.2443136137494823</v>
+        <v>0.2382575792676785</v>
       </c>
       <c r="J4">
-        <v>0.2443136137494823</v>
+        <v>0.2382575792676785</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>15.4888076365106</v>
+        <v>2.638014666666666</v>
       </c>
       <c r="N4">
-        <v>15.4888076365106</v>
+        <v>7.914044</v>
       </c>
       <c r="O4">
-        <v>0.8375568880388951</v>
+        <v>0.09518448789647081</v>
       </c>
       <c r="P4">
-        <v>0.8375568880388951</v>
+        <v>0.09518448789647084</v>
       </c>
       <c r="Q4">
-        <v>437.6269520342851</v>
+        <v>74.69971690674933</v>
       </c>
       <c r="R4">
-        <v>437.6269520342851</v>
+        <v>672.297452160744</v>
       </c>
       <c r="S4">
-        <v>0.204626550037553</v>
+        <v>0.02267842567004678</v>
       </c>
       <c r="T4">
-        <v>0.204626550037553</v>
+        <v>0.02267842567004679</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>32.0402255896116</v>
+        <v>28.316642</v>
       </c>
       <c r="H5">
-        <v>32.0402255896116</v>
+        <v>84.949926</v>
       </c>
       <c r="I5">
-        <v>0.2770493642628414</v>
+        <v>0.2382575792676785</v>
       </c>
       <c r="J5">
-        <v>0.2770493642628414</v>
+        <v>0.2382575792676785</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.492536771347505</v>
+        <v>24.04528633333333</v>
       </c>
       <c r="N5">
-        <v>0.492536771347505</v>
+        <v>72.135859</v>
       </c>
       <c r="O5">
-        <v>0.02663391367080581</v>
+        <v>0.8675987646627977</v>
       </c>
       <c r="P5">
-        <v>0.02663391367080581</v>
+        <v>0.8675987646627977</v>
       </c>
       <c r="Q5">
-        <v>15.78098926515301</v>
+        <v>680.8817648884927</v>
       </c>
       <c r="R5">
-        <v>15.78098926515301</v>
+        <v>6127.935883996434</v>
       </c>
       <c r="S5">
-        <v>0.00737890885032815</v>
+        <v>0.2067119814441865</v>
       </c>
       <c r="T5">
-        <v>0.00737890885032815</v>
+        <v>0.2067119814441865</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>32.0402255896116</v>
+        <v>28.316642</v>
       </c>
       <c r="H6">
-        <v>32.0402255896116</v>
+        <v>84.949926</v>
       </c>
       <c r="I6">
-        <v>0.2770493642628414</v>
+        <v>0.2382575792676785</v>
       </c>
       <c r="J6">
-        <v>0.2770493642628414</v>
+        <v>0.2382575792676785</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>2.51149811747412</v>
+        <v>0.047364</v>
       </c>
       <c r="N6">
-        <v>2.51149811747412</v>
+        <v>0.142092</v>
       </c>
       <c r="O6">
-        <v>0.1358091982902991</v>
+        <v>0.001708981432777646</v>
       </c>
       <c r="P6">
-        <v>0.1358091982902991</v>
+        <v>0.001708981432777646</v>
       </c>
       <c r="Q6">
-        <v>80.46896625175567</v>
+        <v>1.341189431688</v>
       </c>
       <c r="R6">
-        <v>80.46896625175567</v>
+        <v>12.070704885192</v>
       </c>
       <c r="S6">
-        <v>0.03762585204737354</v>
+        <v>0.0004071777791870108</v>
       </c>
       <c r="T6">
-        <v>0.03762585204737354</v>
+        <v>0.0004071777791870109</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,60 +841,60 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>32.0402255896116</v>
+        <v>32.208719</v>
       </c>
       <c r="H7">
-        <v>32.0402255896116</v>
+        <v>96.62615700000001</v>
       </c>
       <c r="I7">
-        <v>0.2770493642628414</v>
+        <v>0.2710057011792882</v>
       </c>
       <c r="J7">
-        <v>0.2770493642628414</v>
+        <v>0.2710057011792883</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>15.4888076365106</v>
+        <v>0.464112</v>
       </c>
       <c r="N7">
-        <v>15.4888076365106</v>
+        <v>1.392336</v>
       </c>
       <c r="O7">
-        <v>0.8375568880388951</v>
+        <v>0.0167460263222975</v>
       </c>
       <c r="P7">
-        <v>0.8375568880388951</v>
+        <v>0.0167460263222975</v>
       </c>
       <c r="Q7">
-        <v>496.2648907878985</v>
+        <v>14.948452992528</v>
       </c>
       <c r="R7">
-        <v>496.2648907878985</v>
+        <v>134.536076932752</v>
       </c>
       <c r="S7">
-        <v>0.2320446033651397</v>
+        <v>0.004538268605441052</v>
       </c>
       <c r="T7">
-        <v>0.2320446033651397</v>
+        <v>0.004538268605441053</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -906,57 +906,57 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>18.9072500677621</v>
+        <v>32.208719</v>
       </c>
       <c r="H8">
-        <v>18.9072500677621</v>
+        <v>96.62615700000001</v>
       </c>
       <c r="I8">
-        <v>0.1634895358829948</v>
+        <v>0.2710057011792882</v>
       </c>
       <c r="J8">
-        <v>0.1634895358829948</v>
+        <v>0.2710057011792883</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.492536771347505</v>
+        <v>0.519977</v>
       </c>
       <c r="N8">
-        <v>0.492536771347505</v>
+        <v>1.559931</v>
       </c>
       <c r="O8">
-        <v>0.02663391367080581</v>
+        <v>0.01876173968565624</v>
       </c>
       <c r="P8">
-        <v>0.02663391367080581</v>
+        <v>0.01876173968565624</v>
       </c>
       <c r="Q8">
-        <v>9.31251590343544</v>
+        <v>16.747793079463</v>
       </c>
       <c r="R8">
-        <v>9.31251590343544</v>
+        <v>150.730137715167</v>
       </c>
       <c r="S8">
-        <v>0.004354366184787792</v>
+        <v>0.005084538418854548</v>
       </c>
       <c r="T8">
-        <v>0.004354366184787792</v>
+        <v>0.00508453841885455</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -968,57 +968,57 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>18.9072500677621</v>
+        <v>32.208719</v>
       </c>
       <c r="H9">
-        <v>18.9072500677621</v>
+        <v>96.62615700000001</v>
       </c>
       <c r="I9">
-        <v>0.1634895358829948</v>
+        <v>0.2710057011792882</v>
       </c>
       <c r="J9">
-        <v>0.1634895358829948</v>
+        <v>0.2710057011792883</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.51149811747412</v>
+        <v>2.638014666666666</v>
       </c>
       <c r="N9">
-        <v>2.51149811747412</v>
+        <v>7.914044</v>
       </c>
       <c r="O9">
-        <v>0.1358091982902991</v>
+        <v>0.09518448789647081</v>
       </c>
       <c r="P9">
-        <v>0.1358091982902991</v>
+        <v>0.09518448789647084</v>
       </c>
       <c r="Q9">
-        <v>47.48552295179694</v>
+        <v>84.96707311654534</v>
       </c>
       <c r="R9">
-        <v>47.48552295179694</v>
+        <v>764.703658048908</v>
       </c>
       <c r="S9">
-        <v>0.02220338279712262</v>
+        <v>0.02579553888377455</v>
       </c>
       <c r="T9">
-        <v>0.02220338279712262</v>
+        <v>0.02579553888377456</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1030,57 +1030,57 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>18.9072500677621</v>
+        <v>32.208719</v>
       </c>
       <c r="H10">
-        <v>18.9072500677621</v>
+        <v>96.62615700000001</v>
       </c>
       <c r="I10">
-        <v>0.1634895358829948</v>
+        <v>0.2710057011792882</v>
       </c>
       <c r="J10">
-        <v>0.1634895358829948</v>
+        <v>0.2710057011792883</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>15.4888076365106</v>
+        <v>24.04528633333333</v>
       </c>
       <c r="N10">
-        <v>15.4888076365106</v>
+        <v>72.135859</v>
       </c>
       <c r="O10">
-        <v>0.8375568880388951</v>
+        <v>0.8675987646627977</v>
       </c>
       <c r="P10">
-        <v>0.8375568880388951</v>
+        <v>0.8675987646627977</v>
       </c>
       <c r="Q10">
-        <v>292.8507592349692</v>
+        <v>774.4678707848738</v>
       </c>
       <c r="R10">
-        <v>292.8507592349692</v>
+        <v>6970.210837063863</v>
       </c>
       <c r="S10">
-        <v>0.1369317869010844</v>
+        <v>0.2351242115597258</v>
       </c>
       <c r="T10">
-        <v>0.1369317869010844</v>
+        <v>0.2351242115597258</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,60 +1089,60 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>36.1718308203635</v>
+        <v>32.208719</v>
       </c>
       <c r="H11">
-        <v>36.1718308203635</v>
+        <v>96.62615700000001</v>
       </c>
       <c r="I11">
-        <v>0.3127750366481187</v>
+        <v>0.2710057011792882</v>
       </c>
       <c r="J11">
-        <v>0.3127750366481187</v>
+        <v>0.2710057011792883</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.492536771347505</v>
+        <v>0.047364</v>
       </c>
       <c r="N11">
-        <v>0.492536771347505</v>
+        <v>0.142092</v>
       </c>
       <c r="O11">
-        <v>0.02663391367080581</v>
+        <v>0.001708981432777646</v>
       </c>
       <c r="P11">
-        <v>0.02663391367080581</v>
+        <v>0.001708981432777646</v>
       </c>
       <c r="Q11">
-        <v>17.81595676599001</v>
+        <v>1.525533766716</v>
       </c>
       <c r="R11">
-        <v>17.81595676599001</v>
+        <v>13.729803900444</v>
       </c>
       <c r="S11">
-        <v>0.008330423324469118</v>
+        <v>0.0004631437114922905</v>
       </c>
       <c r="T11">
-        <v>0.008330423324469118</v>
+        <v>0.0004631437114922908</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1151,60 +1151,60 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>36.1718308203635</v>
+        <v>19.02080233333333</v>
       </c>
       <c r="H12">
-        <v>36.1718308203635</v>
+        <v>57.06240699999999</v>
       </c>
       <c r="I12">
-        <v>0.3127750366481187</v>
+        <v>0.1600419399895302</v>
       </c>
       <c r="J12">
-        <v>0.3127750366481187</v>
+        <v>0.1600419399895302</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>2.51149811747412</v>
+        <v>0.464112</v>
       </c>
       <c r="N12">
-        <v>2.51149811747412</v>
+        <v>1.392336</v>
       </c>
       <c r="O12">
-        <v>0.1358091982902991</v>
+        <v>0.0167460263222975</v>
       </c>
       <c r="P12">
-        <v>0.1358091982902991</v>
+        <v>0.0167460263222975</v>
       </c>
       <c r="Q12">
-        <v>90.84548501093531</v>
+        <v>8.827782612528001</v>
       </c>
       <c r="R12">
-        <v>90.84548501093531</v>
+        <v>79.45004351275199</v>
       </c>
       <c r="S12">
-        <v>0.04247772697239994</v>
+        <v>0.00268006653973623</v>
       </c>
       <c r="T12">
-        <v>0.04247772697239994</v>
+        <v>0.00268006653973623</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>36.1718308203635</v>
+        <v>19.02080233333333</v>
       </c>
       <c r="H13">
-        <v>36.1718308203635</v>
+        <v>57.06240699999999</v>
       </c>
       <c r="I13">
-        <v>0.3127750366481187</v>
+        <v>0.1600419399895302</v>
       </c>
       <c r="J13">
-        <v>0.3127750366481187</v>
+        <v>0.1600419399895302</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>15.4888076365106</v>
+        <v>0.519977</v>
       </c>
       <c r="N13">
-        <v>15.4888076365106</v>
+        <v>1.559931</v>
       </c>
       <c r="O13">
-        <v>0.8375568880388951</v>
+        <v>0.01876173968565624</v>
       </c>
       <c r="P13">
-        <v>0.8375568880388951</v>
+        <v>0.01876173968565624</v>
       </c>
       <c r="Q13">
-        <v>560.2585294370157</v>
+        <v>9.890379734879666</v>
       </c>
       <c r="R13">
-        <v>560.2585294370157</v>
+        <v>89.01341761391699</v>
       </c>
       <c r="S13">
-        <v>0.2619668863512497</v>
+        <v>0.003002665216870983</v>
       </c>
       <c r="T13">
-        <v>0.2619668863512497</v>
+        <v>0.003002665216870983</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,60 +1275,60 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.274369212109465</v>
+        <v>19.02080233333333</v>
       </c>
       <c r="H14">
-        <v>0.274369212109465</v>
+        <v>57.06240699999999</v>
       </c>
       <c r="I14">
-        <v>0.002372449456562812</v>
+        <v>0.1600419399895302</v>
       </c>
       <c r="J14">
-        <v>0.002372449456562812</v>
+        <v>0.1600419399895302</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.492536771347505</v>
+        <v>2.638014666666666</v>
       </c>
       <c r="N14">
-        <v>0.492536771347505</v>
+        <v>7.914044</v>
       </c>
       <c r="O14">
-        <v>0.02663391367080581</v>
+        <v>0.09518448789647081</v>
       </c>
       <c r="P14">
-        <v>0.02663391367080581</v>
+        <v>0.09518448789647084</v>
       </c>
       <c r="Q14">
-        <v>0.1351369258895547</v>
+        <v>50.17715552710088</v>
       </c>
       <c r="R14">
-        <v>0.1351369258895547</v>
+        <v>451.5943997439079</v>
       </c>
       <c r="S14">
-        <v>6.318761401444411E-05</v>
+        <v>0.01523351009986115</v>
       </c>
       <c r="T14">
-        <v>6.318761401444411E-05</v>
+        <v>0.01523351009986115</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,117 +1337,737 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.274369212109465</v>
+        <v>19.02080233333333</v>
       </c>
       <c r="H15">
-        <v>0.274369212109465</v>
+        <v>57.06240699999999</v>
       </c>
       <c r="I15">
-        <v>0.002372449456562812</v>
+        <v>0.1600419399895302</v>
       </c>
       <c r="J15">
-        <v>0.002372449456562812</v>
+        <v>0.1600419399895302</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.51149811747412</v>
+        <v>24.04528633333333</v>
       </c>
       <c r="N15">
-        <v>2.51149811747412</v>
+        <v>72.135859</v>
       </c>
       <c r="O15">
-        <v>0.1358091982902991</v>
+        <v>0.8675987646627977</v>
       </c>
       <c r="P15">
-        <v>0.1358091982902991</v>
+        <v>0.8675987646627977</v>
       </c>
       <c r="Q15">
-        <v>0.689077759705779</v>
+        <v>457.3606383947347</v>
       </c>
       <c r="R15">
-        <v>0.689077759705779</v>
+        <v>4116.245745552612</v>
       </c>
       <c r="S15">
-        <v>0.0003222004586800514</v>
+        <v>0.138852189429154</v>
       </c>
       <c r="T15">
-        <v>0.0003222004586800514</v>
+        <v>0.138852189429154</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>19.02080233333333</v>
+      </c>
+      <c r="H16">
+        <v>57.06240699999999</v>
+      </c>
+      <c r="I16">
+        <v>0.1600419399895302</v>
+      </c>
+      <c r="J16">
+        <v>0.1600419399895302</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.047364</v>
+      </c>
+      <c r="N16">
+        <v>0.142092</v>
+      </c>
+      <c r="O16">
+        <v>0.001708981432777646</v>
+      </c>
+      <c r="P16">
+        <v>0.001708981432777646</v>
+      </c>
+      <c r="Q16">
+        <v>0.9009012817159999</v>
+      </c>
+      <c r="R16">
+        <v>8.108111535443999</v>
+      </c>
+      <c r="S16">
+        <v>0.0002735087039078214</v>
+      </c>
+      <c r="T16">
+        <v>0.0002735087039078214</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0.274369212109465</v>
-      </c>
-      <c r="H16">
-        <v>0.274369212109465</v>
-      </c>
-      <c r="I16">
-        <v>0.002372449456562812</v>
-      </c>
-      <c r="J16">
-        <v>0.002372449456562812</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>15.4888076365106</v>
-      </c>
-      <c r="N16">
-        <v>15.4888076365106</v>
-      </c>
-      <c r="O16">
-        <v>0.8375568880388951</v>
-      </c>
-      <c r="P16">
-        <v>0.8375568880388951</v>
-      </c>
-      <c r="Q16">
-        <v>4.249651947744479</v>
-      </c>
-      <c r="R16">
-        <v>4.249651947744479</v>
-      </c>
-      <c r="S16">
-        <v>0.001987061383868317</v>
-      </c>
-      <c r="T16">
-        <v>0.001987061383868317</v>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>38.93425766666667</v>
+      </c>
+      <c r="H17">
+        <v>116.802773</v>
+      </c>
+      <c r="I17">
+        <v>0.3275947049881145</v>
+      </c>
+      <c r="J17">
+        <v>0.3275947049881145</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.464112</v>
+      </c>
+      <c r="N17">
+        <v>1.392336</v>
+      </c>
+      <c r="O17">
+        <v>0.0167460263222975</v>
+      </c>
+      <c r="P17">
+        <v>0.0167460263222975</v>
+      </c>
+      <c r="Q17">
+        <v>18.069856194192</v>
+      </c>
+      <c r="R17">
+        <v>162.628705747728</v>
+      </c>
+      <c r="S17">
+        <v>0.00548590955277625</v>
+      </c>
+      <c r="T17">
+        <v>0.005485909552776251</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>38.93425766666667</v>
+      </c>
+      <c r="H18">
+        <v>116.802773</v>
+      </c>
+      <c r="I18">
+        <v>0.3275947049881145</v>
+      </c>
+      <c r="J18">
+        <v>0.3275947049881145</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.519977</v>
+      </c>
+      <c r="N18">
+        <v>1.559931</v>
+      </c>
+      <c r="O18">
+        <v>0.01876173968565624</v>
+      </c>
+      <c r="P18">
+        <v>0.01876173968565624</v>
+      </c>
+      <c r="Q18">
+        <v>20.24491849874033</v>
+      </c>
+      <c r="R18">
+        <v>182.204266488663</v>
+      </c>
+      <c r="S18">
+        <v>0.006146246577386356</v>
+      </c>
+      <c r="T18">
+        <v>0.006146246577386357</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>38.93425766666667</v>
+      </c>
+      <c r="H19">
+        <v>116.802773</v>
+      </c>
+      <c r="I19">
+        <v>0.3275947049881145</v>
+      </c>
+      <c r="J19">
+        <v>0.3275947049881145</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>2.638014666666666</v>
+      </c>
+      <c r="N19">
+        <v>7.914044</v>
+      </c>
+      <c r="O19">
+        <v>0.09518448789647081</v>
+      </c>
+      <c r="P19">
+        <v>0.09518448789647084</v>
+      </c>
+      <c r="Q19">
+        <v>102.7091427604458</v>
+      </c>
+      <c r="R19">
+        <v>924.382284844012</v>
+      </c>
+      <c r="S19">
+        <v>0.03118193423188911</v>
+      </c>
+      <c r="T19">
+        <v>0.03118193423188912</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>38.93425766666667</v>
+      </c>
+      <c r="H20">
+        <v>116.802773</v>
+      </c>
+      <c r="I20">
+        <v>0.3275947049881145</v>
+      </c>
+      <c r="J20">
+        <v>0.3275947049881145</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>24.04528633333333</v>
+      </c>
+      <c r="N20">
+        <v>72.135859</v>
+      </c>
+      <c r="O20">
+        <v>0.8675987646627977</v>
+      </c>
+      <c r="P20">
+        <v>0.8675987646627977</v>
+      </c>
+      <c r="Q20">
+        <v>936.1853737707786</v>
+      </c>
+      <c r="R20">
+        <v>8425.668363937008</v>
+      </c>
+      <c r="S20">
+        <v>0.2842207613577618</v>
+      </c>
+      <c r="T20">
+        <v>0.2842207613577619</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>38.93425766666667</v>
+      </c>
+      <c r="H21">
+        <v>116.802773</v>
+      </c>
+      <c r="I21">
+        <v>0.3275947049881145</v>
+      </c>
+      <c r="J21">
+        <v>0.3275947049881145</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>0.047364</v>
+      </c>
+      <c r="N21">
+        <v>0.142092</v>
+      </c>
+      <c r="O21">
+        <v>0.001708981432777646</v>
+      </c>
+      <c r="P21">
+        <v>0.001708981432777646</v>
+      </c>
+      <c r="Q21">
+        <v>1.844082180124</v>
+      </c>
+      <c r="R21">
+        <v>16.596739621116</v>
+      </c>
+      <c r="S21">
+        <v>0.0005598532683009581</v>
+      </c>
+      <c r="T21">
+        <v>0.0005598532683009583</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.3684403333333333</v>
+      </c>
+      <c r="H22">
+        <v>1.105321</v>
+      </c>
+      <c r="I22">
+        <v>0.003100074575388443</v>
+      </c>
+      <c r="J22">
+        <v>0.003100074575388443</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.464112</v>
+      </c>
+      <c r="N22">
+        <v>1.392336</v>
+      </c>
+      <c r="O22">
+        <v>0.0167460263222975</v>
+      </c>
+      <c r="P22">
+        <v>0.0167460263222975</v>
+      </c>
+      <c r="Q22">
+        <v>0.170997579984</v>
+      </c>
+      <c r="R22">
+        <v>1.538978219856</v>
+      </c>
+      <c r="S22">
+        <v>5.191393044054012E-05</v>
+      </c>
+      <c r="T22">
+        <v>5.191393044054013E-05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.3684403333333333</v>
+      </c>
+      <c r="H23">
+        <v>1.105321</v>
+      </c>
+      <c r="I23">
+        <v>0.003100074575388443</v>
+      </c>
+      <c r="J23">
+        <v>0.003100074575388443</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.519977</v>
+      </c>
+      <c r="N23">
+        <v>1.559931</v>
+      </c>
+      <c r="O23">
+        <v>0.01876173968565624</v>
+      </c>
+      <c r="P23">
+        <v>0.01876173968565624</v>
+      </c>
+      <c r="Q23">
+        <v>0.1915804992056667</v>
+      </c>
+      <c r="R23">
+        <v>1.724224492851</v>
+      </c>
+      <c r="S23">
+        <v>5.816279218955927E-05</v>
+      </c>
+      <c r="T23">
+        <v>5.816279218955927E-05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.3684403333333333</v>
+      </c>
+      <c r="H24">
+        <v>1.105321</v>
+      </c>
+      <c r="I24">
+        <v>0.003100074575388443</v>
+      </c>
+      <c r="J24">
+        <v>0.003100074575388443</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>2.638014666666666</v>
+      </c>
+      <c r="N24">
+        <v>7.914044</v>
+      </c>
+      <c r="O24">
+        <v>0.09518448789647081</v>
+      </c>
+      <c r="P24">
+        <v>0.09518448789647084</v>
+      </c>
+      <c r="Q24">
+        <v>0.9719510031248887</v>
+      </c>
+      <c r="R24">
+        <v>8.747559028124</v>
+      </c>
+      <c r="S24">
+        <v>0.0002950790108992182</v>
+      </c>
+      <c r="T24">
+        <v>0.0002950790108992183</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.3684403333333333</v>
+      </c>
+      <c r="H25">
+        <v>1.105321</v>
+      </c>
+      <c r="I25">
+        <v>0.003100074575388443</v>
+      </c>
+      <c r="J25">
+        <v>0.003100074575388443</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>24.04528633333333</v>
+      </c>
+      <c r="N25">
+        <v>72.135859</v>
+      </c>
+      <c r="O25">
+        <v>0.8675987646627977</v>
+      </c>
+      <c r="P25">
+        <v>0.8675987646627977</v>
+      </c>
+      <c r="Q25">
+        <v>8.859253311748777</v>
+      </c>
+      <c r="R25">
+        <v>79.733279805739</v>
+      </c>
+      <c r="S25">
+        <v>0.002689620871969561</v>
+      </c>
+      <c r="T25">
+        <v>0.002689620871969561</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.3684403333333333</v>
+      </c>
+      <c r="H26">
+        <v>1.105321</v>
+      </c>
+      <c r="I26">
+        <v>0.003100074575388443</v>
+      </c>
+      <c r="J26">
+        <v>0.003100074575388443</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M26">
+        <v>0.047364</v>
+      </c>
+      <c r="N26">
+        <v>0.142092</v>
+      </c>
+      <c r="O26">
+        <v>0.001708981432777646</v>
+      </c>
+      <c r="P26">
+        <v>0.001708981432777646</v>
+      </c>
+      <c r="Q26">
+        <v>0.017450807948</v>
+      </c>
+      <c r="R26">
+        <v>0.157057271532</v>
+      </c>
+      <c r="S26">
+        <v>5.297969889564893E-06</v>
+      </c>
+      <c r="T26">
+        <v>5.297969889564895E-06</v>
       </c>
     </row>
   </sheetData>
